--- a/src/data/demo_test_data.xlsx
+++ b/src/data/demo_test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andromeda\Desktop\GitHub\LLM-based-QA-chatbot-builder\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926D8FF-D965-48A6-9142-AAB537102707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04299B0-D61D-46B3-8F56-9712D0F27C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23415" yWindow="3090" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="1350" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>The current head of the Department of CSE at KUET is Dr. M. M. A. Hashem.</t>
   </si>
   <si>
-    <t>Context</t>
-  </si>
-  <si>
     <t>Applicants for the masters programs must have B.Sc. Eng. degree or equivalent in the relevant field from a recognized University/Institute with good academic records. Students who have higher research aptitude are welcome to the program. KUET invites application twice in a year (January Term and July Term). The respective departments arrange an interview at a suitable time to select candidates for this program. The selected candidates have to take admission by depositing prescribed amount of money to the bank. Full-time and part-time students are there in this program. For full time meritorious students financial help can be provided. A part-time student must have consent from his employer to pursue postgraduate studies.</t>
   </si>
   <si>
@@ -88,7 +85,10 @@
     <t>The department of CSE provides an outstanding opportunity for students to get a quality education in Computer Science and Engineering. It started its academic activities from 26th September 1999 with 60 yearly intake which was increased to 120 from 2016. The department started postgraduate programs (M.Sc. and Ph.D.) in 2009 with 20 yearly intake which was increased to 40 from 2018. From the beginning, the department has been widely recognized for its excellent research and teaching capabilities. Students are enrolled in this department through a highly competitive entrance exam and only top rank students of the country get the change to admit. The current head of the Department of CSE at KUET is Dr. M. M. A. Hashem.</t>
   </si>
   <si>
-    <t>ground_truths</t>
+    <t>ground_truth</t>
+  </si>
+  <si>
+    <t>context</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -525,7 +525,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
